--- a/output/2_1_0/nomogram_config_2_1_0.xlsx
+++ b/output/2_1_0/nomogram_config_2_1_0.xlsx
@@ -76,9 +76,6 @@
     <t>CountDeclMethodDefault</t>
   </si>
   <si>
-    <t>CountDeclMethodPrivate</t>
-  </si>
-  <si>
     <t>MaxCyclomatic</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>CountOutputMax</t>
+  </si>
+  <si>
+    <t>CountPathMin-divided-by-1,000</t>
   </si>
   <si>
     <t>CountPathMean-divided-by-1,000,000</t>
@@ -484,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-2.8138</v>
+        <v>-2.3354</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0233</v>
+        <v>0.0108</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.0569</v>
+        <v>-0.06569999999999999</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.09859999999999999</v>
+        <v>0.0573</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.1664</v>
+        <v>-0.098</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0166</v>
+        <v>-0.06619999999999999</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0137</v>
+        <v>0.0049</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.016</v>
+        <v>0.0216</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0204</v>
+        <v>0.065</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0174</v>
+        <v>-0.0028</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -653,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002</v>
+        <v>-0.0109</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0324</v>
+        <v>0.0252</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0405</v>
+        <v>0.0199</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>526</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -704,13 +704,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0235</v>
+        <v>-0.1495</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -721,13 +721,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.08019999999999999</v>
+        <v>0.0028</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -738,13 +738,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.0057</v>
+        <v>-0.4759</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -755,13 +755,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.5188</v>
+        <v>-0.0825</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.699999999999999</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -772,13 +772,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0072</v>
+        <v>0.0282</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>55.5</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -789,13 +789,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0446</v>
+        <v>0.0002</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>55.5</v>
+        <v>377</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -806,13 +806,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0001</v>
+        <v>-0.0441</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>377</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -823,13 +823,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0413</v>
+        <v>0.0143</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -840,13 +840,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0229</v>
+        <v>0.0159</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -857,13 +857,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0223</v>
+        <v>0.5155999999999999</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>173</v>
+        <v>1363</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -874,13 +874,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.9762999999999999</v>
+        <v>0.1456</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -891,7 +891,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0018</v>
+        <v>-0.0003</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.039</v>
+        <v>-0.2448</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3976</v>
+        <v>0.4477</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -942,7 +942,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0181</v>
+        <v>0.0623</v>
       </c>
       <c r="C30">
         <v>0</v>

--- a/output/2_1_0/nomogram_config_2_1_0.xlsx
+++ b/output/2_1_0/nomogram_config_2_1_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>feature</t>
   </si>
@@ -46,9 +46,6 @@
     <t>continuous</t>
   </si>
   <si>
-    <t>AvgCountLineBlank</t>
-  </si>
-  <si>
     <t>AvgCountLineComment</t>
   </si>
   <si>
@@ -70,12 +67,6 @@
     <t>CountDeclClass</t>
   </si>
   <si>
-    <t>CountDeclClassMethod</t>
-  </si>
-  <si>
-    <t>CountDeclMethodDefault</t>
-  </si>
-  <si>
     <t>MaxCyclomatic</t>
   </si>
   <si>
@@ -100,13 +91,10 @@
     <t>CountOutputMin</t>
   </si>
   <si>
-    <t>CountOutputMean</t>
-  </si>
-  <si>
     <t>CountOutputMax</t>
   </si>
   <si>
-    <t>CountPathMin-divided-by-1,000</t>
+    <t>CountPathMin-divided-by-10,000</t>
   </si>
   <si>
     <t>CountPathMean-divided-by-1,000,000</t>
@@ -116,9 +104,6 @@
   </si>
   <si>
     <t>MaxNestingMin</t>
-  </si>
-  <si>
-    <t>MaxNestingMean</t>
   </si>
   <si>
     <t>MaxNestingMax</t>
@@ -453,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-2.3354</v>
+        <v>-2.7464</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -500,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0108</v>
+        <v>-0.0139</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -517,13 +502,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.06569999999999999</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -534,13 +519,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0573</v>
+        <v>-0.0803</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -551,13 +536,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.098</v>
+        <v>-0.0419</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -568,13 +553,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.06619999999999999</v>
+        <v>-0.0118</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -585,13 +570,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0049</v>
+        <v>0.0199</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.3</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -602,13 +587,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0216</v>
+        <v>0.0176</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -619,13 +604,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.065</v>
+        <v>-0.0015</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>2105</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -636,13 +621,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0028</v>
+        <v>0.0253</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>2105</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -653,13 +638,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0109</v>
+        <v>-0.0197</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>788</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -670,13 +655,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0252</v>
+        <v>0.0026</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -687,13 +672,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0199</v>
+        <v>-0.374</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>145</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -704,13 +689,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.1495</v>
+        <v>-0.095</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -721,13 +706,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.0028</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>55.5</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -738,13 +723,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.4759</v>
+        <v>-0.0015</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.699999999999999</v>
+        <v>377</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -755,13 +740,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.0825</v>
+        <v>-0.002</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -772,13 +757,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0282</v>
+        <v>0.0229</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>55.5</v>
+        <v>173</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -789,13 +774,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0002</v>
+        <v>1.0917</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>377</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -806,13 +791,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0441</v>
+        <v>0.0229</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -823,13 +808,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0143</v>
+        <v>-0.0003</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>76</v>
+        <v>1000</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -840,13 +825,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0159</v>
+        <v>0.1718</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -857,100 +842,15 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5155999999999999</v>
+        <v>0.113</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1363</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.1456</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>200</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>-0.0003</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1000</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>-0.2448</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.4477</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.0623</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
         <v>9</v>
       </c>
     </row>

--- a/output/2_1_0/nomogram_config_2_1_0.xlsx
+++ b/output/2_1_0/nomogram_config_2_1_0.xlsx
@@ -469,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-2.7464</v>
+        <v>-3.3867</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0139</v>
+        <v>-0.0086</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.09130000000000001</v>
+        <v>0.0844</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0803</v>
+        <v>-0.0463</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0419</v>
+        <v>0.0588</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0118</v>
+        <v>-0.1382</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0199</v>
+        <v>0.0306</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0176</v>
+        <v>-0.08740000000000001</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.0015</v>
+        <v>0.1096</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -621,7 +621,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0253</v>
+        <v>0.0072</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0197</v>
+        <v>0.031</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0026</v>
+        <v>0.0035</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.374</v>
+        <v>-0.194</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.095</v>
+        <v>0.0313</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.06610000000000001</v>
+        <v>0.0455</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.0015</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.002</v>
+        <v>-0.05</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0229</v>
+        <v>0.0232</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>1.0917</v>
+        <v>0.8692</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0229</v>
+        <v>0.1137</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0003</v>
+        <v>0.0003</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1718</v>
+        <v>0.1188</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.113</v>
+        <v>0.12</v>
       </c>
       <c r="C25">
         <v>0</v>
